--- a/data/requests/Brzesko/Brzesko_requests_pool.xlsx
+++ b/data/requests/Brzesko/Brzesko_requests_pool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szmat\Documents\GitHub\TransportPy\data\requests\Brzesko\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5734674F-BAE2-43C8-A466-0724AA1ABF41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C809C8A-CB96-4B58-9B37-65B307E97B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3690" yWindow="1365" windowWidth="28800" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>id</t>
   </si>
@@ -485,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,16 +692,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>581904228</v>
+        <v>6364420778</v>
       </c>
       <c r="C12">
         <v>581903789</v>
       </c>
       <c r="D12" t="str">
+        <f>"2016-01-01 00:23:35"</f>
+        <v>2016-01-01 00:23:35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>581904228</v>
+      </c>
+      <c r="C13">
+        <v>581903789</v>
+      </c>
+      <c r="D13" t="str">
         <f>"2016-01-01 00:33:31"</f>
         <v>2016-01-01 00:33:31</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>14</v>
       </c>
     </row>

--- a/data/requests/Brzesko/Brzesko_requests_pool.xlsx
+++ b/data/requests/Brzesko/Brzesko_requests_pool.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szmat\Documents\GitHub\TransportPy\data\requests\Brzesko\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C809C8A-CB96-4B58-9B37-65B307E97B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FFEC61-6FAC-45D7-9BAB-A8D7A1ADD01A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="1365" windowWidth="28800" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7470" yWindow="1770" windowWidth="28800" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
   <si>
     <t>id</t>
   </si>
@@ -74,10 +74,16 @@
     <t>request_time</t>
   </si>
   <si>
-    <t>request_type</t>
-  </si>
-  <si>
     <t>pool</t>
+  </si>
+  <si>
+    <t>operator</t>
+  </si>
+  <si>
+    <t>fake_uber</t>
+  </si>
+  <si>
+    <t>type</t>
   </si>
 </sst>
 </file>
@@ -165,9 +171,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -205,9 +211,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -240,26 +246,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -292,26 +281,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -485,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,7 +471,7 @@
     <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -513,10 +485,13 @@
         <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -530,10 +505,13 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -547,10 +525,13 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -564,10 +545,13 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -581,10 +565,13 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -598,10 +585,13 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -615,10 +605,13 @@
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -632,10 +625,13 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -649,10 +645,13 @@
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -666,10 +665,13 @@
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -684,10 +686,13 @@
         <v>2016-01-01 00:23:31</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -702,10 +707,13 @@
         <v>2016-01-01 00:23:35</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -720,7 +728,10 @@
         <v>2016-01-01 00:33:31</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data/requests/Brzesko/Brzesko_requests_pool.xlsx
+++ b/data/requests/Brzesko/Brzesko_requests_pool.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szmat\Documents\GitHub\TransportPy\data\requests\Brzesko\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FFEC61-6FAC-45D7-9BAB-A8D7A1ADD01A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14E7FB7-C2F9-4142-901C-DC8F05D02C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7470" yWindow="1770" windowWidth="28800" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -460,7 +460,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,6 +469,7 @@
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -516,10 +517,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3042772633</v>
+        <v>581904721</v>
       </c>
       <c r="C3">
-        <v>6441601968</v>
+        <v>581904814</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>

--- a/data/requests/Brzesko/Brzesko_requests_pool.xlsx
+++ b/data/requests/Brzesko/Brzesko_requests_pool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szmat\Documents\GitHub\TransportPy\data\requests\Brzesko\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14E7FB7-C2F9-4142-901C-DC8F05D02C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4017C587-CB20-4034-9E94-2DC1ED1AE5D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -460,7 +460,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/requests/Brzesko/Brzesko_requests_pool.xlsx
+++ b/data/requests/Brzesko/Brzesko_requests_pool.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szmat\Documents\GitHub\TransportPy\data\requests\Brzesko\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4017C587-CB20-4034-9E94-2DC1ED1AE5D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F081FB-E05E-4152-972E-40DFA38A82BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,10 +80,10 @@
     <t>operator</t>
   </si>
   <si>
-    <t>fake_uber</t>
-  </si>
-  <si>
     <t>type</t>
+  </si>
+  <si>
+    <t>city_taxi</t>
   </si>
 </sst>
 </file>
@@ -460,7 +460,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,7 +486,7 @@
         <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>14</v>
@@ -509,7 +509,7 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -529,7 +529,7 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -549,7 +549,7 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -569,7 +569,7 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -589,7 +589,7 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -609,7 +609,7 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -629,7 +629,7 @@
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -649,7 +649,7 @@
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -669,7 +669,7 @@
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -690,7 +690,7 @@
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -711,7 +711,7 @@
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -732,7 +732,7 @@
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
